--- a/biology/Médecine/Michał_Lityński/Michał_Lityński.xlsx
+++ b/biology/Médecine/Michał_Lityński/Michał_Lityński.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Micha%C5%82_Lity%C5%84ski</t>
+          <t>Michał_Lityński</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michał Lityński (né le 14 juin 1906 à Łódź - mort le 5 mars 1989 à Varsovie) est un médecin polonais, juste parmi les nations. En 1953, deux ans avant Jerome Conn il décrit l'hyperaldostéronisme primaire[1],[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michał Lityński (né le 14 juin 1906 à Łódź - mort le 5 mars 1989 à Varsovie) est un médecin polonais, juste parmi les nations. En 1953, deux ans avant Jerome Conn il décrit l'hyperaldostéronisme primaire,
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Micha%C5%82_Lity%C5%84ski</t>
+          <t>Michał_Lityński</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à l'université de Varsovie dans les années 1925 - 1931 en tant qu'aspirant du Centre de santé des armées. Entre novembre 1932 et mars 1936 il travaille à Toruń. En 1936 il devient chef de service de médecine interne de l'hôpital militaire à Varsovie.
 Au début de la Seconde Guerre mondiale il devient le commandant de l'hôpital militaire de Garwolin pour ensuite reprendre son poste de chef de service à Varsovie. Il rejoint l'Armia Krajowa. Il cache dans son service des résistants blessés ainsi que des Juifs rescapés du ghetto. Pendant l'insurrection de Varsovie il organise une infirmerie dans le centre-ville. Vers la fin de la guerre il soigne les partisans à Puszcza Mariańska.
 Après la guerre il travaille à Gdańsk pour revenir, en 1946 à Varsovie où il obtient le poste de chef de service de l'institut de tuberculose à l'Hôpital Wolski.
-En 1986 il est honoré juste parmi les nations par le Yad Vashem[3],[4].
+En 1986 il est honoré juste parmi les nations par le Yad Vashem,.
 </t>
         </is>
       </c>
